--- a/db2-ht13/src/grupp9_uppgift3/Excel Customer Report.xlsx
+++ b/db2-ht13/src/grupp9_uppgift3/Excel Customer Report.xlsx
@@ -750,6 +750,9 @@
     <t>Glattbrugg</t>
   </si>
   <si>
+    <t>Spotsmeyer's Furnishings</t>
+  </si>
+  <si>
     <t>612 South Sunset Drive</t>
   </si>
   <si>
@@ -811,9 +814,6 @@
   </si>
   <si>
     <t>Afrifield Corporation</t>
-  </si>
-  <si>
-    <t>Spotsmeyer's Furnishings</t>
   </si>
 </sst>
 </file>
@@ -1684,7 +1684,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,7 +1698,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1721,16 +1721,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1861,16 +1861,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1917,16 +1917,16 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -1973,16 +1973,16 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -2365,21 +2365,21 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C49" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D49" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
